--- a/biology/Botanique/Allamanda_cathartica/Allamanda_cathartica.xlsx
+++ b/biology/Botanique/Allamanda_cathartica/Allamanda_cathartica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allamanda cathartica est une espèce d'arbuste grimpant de la famille des Apocynaceae, originaire d'Amérique du Sud tropicale et largement cultivé pour l'ornement dans les zones tropicales.
 Aux Antilles françaises, il est connu sous le nom d'allamanda jaune ou de liane à lait. À La Réunion, outre le terme allamanda, coupe-trompette d'or et monette sont aussi employés.
-En Guyane, on l'appelle Allamande, Canari, Liane jaune[3], Orélie, Liane fruit dilait (Créole), Ka'i lekwi (plante), Tasiasiay (fruit) (Wayãpi), Datka βey (Palikur), Dedal-de-Damas, Cipó-de-leite (Portugais du Brésil)[4]. Au Venezuela, on l'appelle Don Tomás, Dribu-acuanateta (Guarao), Puerco espín, Tocoya[5].
-On le nomme aussi golden-trumpet au Guyana, mais encore Pu gaasi (Djuka), Srabitje (Sranan tongo), Baruda balli, Barae da balke (Arawak), Kieraporan (Carib), Jasbite, Anoura, Wilkens-bita au Suriname[3].
+En Guyane, on l'appelle Allamande, Canari, Liane jaune, Orélie, Liane fruit dilait (Créole), Ka'i lekwi (plante), Tasiasiay (fruit) (Wayãpi), Datka βey (Palikur), Dedal-de-Damas, Cipó-de-leite (Portugais du Brésil). Au Venezuela, on l'appelle Don Tomás, Dribu-acuanateta (Guarao), Puerco espín, Tocoya.
+On le nomme aussi golden-trumpet au Guyana, mais encore Pu gaasi (Djuka), Srabitje (Sranan tongo), Baruda balli, Barae da balke (Arawak), Kieraporan (Carib), Jasbite, Anoura, Wilkens-bita au Suriname.
 </t>
         </is>
       </c>
@@ -514,12 +526,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Allamanda cathartica  a été décrite par Carl von Linné et publiée dans Mantissa Plantarum 2: 214-215. En 1771.
-Étymologie
-Le genre Allamanda a été nommé en l'honneur du botaniste suisse Dr. Frédéric-Louis Allamand (1735-1803), de la fin du XVIIIe siècle.
-Cathartica:   épithète du latin «catharticum » signifiant « purgatif »[6].
 </t>
         </is>
       </c>
@@ -545,12 +556,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Allamanda a été nommé en l'honneur du botaniste suisse Dr. Frédéric-Louis Allamand (1735-1803), de la fin du XVIIIe siècle.
+Cathartica:   épithète du latin «catharticum » signifiant « purgatif ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Allamanda_cathartica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allamanda_cathartica</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste[7] lianescent développant de longs rameaux glabres, violacé pourpre, longs de 10 m ou plus. Toutes les parties contiennent un abondant latex blanc caustique.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste lianescent développant de longs rameaux glabres, violacé pourpre, longs de 10 m ou plus. Toutes les parties contiennent un abondant latex blanc caustique.
 L'écorce est verte, lisse sur le bois jeune, virant au brun pâle ou souvent rouge sur les surfaces exposées au soleil.
 Les feuilles persistantes sont verticillées par 4 (plus rarement 3 ou 5).
 Le pétiole est long de 0,3-0,7 cm, avec des wikt:colleters.
@@ -565,39 +616,7 @@
 Les 5 lobes sont jaunes, obliques, longs de 2,5-3 cm, arrondis et réfléchis sont imbriqués dans le sens inverse des aiguilles d'une montre.
 Les anthères sont de forme oblancéolées-sagittées, et longues d'environ 0,8 cm.
 Le fruit est une capsule, mesurant environ 5 × 3,5 cm, de couleur vert virant ensuite au brun, de forme largement elliptique ou sub-circulaire, à l'endocarpe blanc, et avec des épines longues de 10–11(15) mm.
-Il contient environ 30 graines épaisses, mesurant environ 3 × 3 cm, blanche virant au brun, à aile circulaire dures et étroites[3],[5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Allamanda_cathartica</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Allamanda_cathartica</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allamanda cathartica est originaire du nord-est de l'Amérique du Sud : Costa Rica, Panama[3], Venezuela (Delta Amacuro (répandu), Bolívar Aragua, Carabobo, Miranda, Monagas, Yaracuy), Guyanes, Brésil.
-Cet arbuste est largement cultivé et échappé sous les tropiques des deux hémisphères[5].
+Il contient environ 30 graines épaisses, mesurant environ 3 × 3 cm, blanche virant au brun, à aile circulaire dures et étroites,.
 </t>
         </is>
       </c>
@@ -623,50 +642,54 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allamanda cathartica est originaire du nord-est de l'Amérique du Sud : Costa Rica, Panama, Venezuela (Delta Amacuro (répandu), Bolívar Aragua, Carabobo, Miranda, Monagas, Yaracuy), Guyanes, Brésil.
+Cet arbuste est largement cultivé et échappé sous les tropiques des deux hémisphères.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Allamanda_cathartica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allamanda_cathartica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allamanda cathartica est une liane arbustive très commune le long des grands fleuves sur les berges ensoleillées, dans les marécages parmi les mangroves et le long des plages, où il couvre souvent les arbres[3], et dans les habitats rudéraux[4], très ensoleillés et humides. On le rencontre dans les lisières des forêts sempervirentes de plaine et riveraines, autour de 0–500 m d'altitude[5].
-Allamanda cathartica fleurit toute l'année, et fructifie dans les Guyanes en août-septembre[3].
-Les fleurs sont pollinisées par les colibris[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allamanda cathartica est une liane arbustive très commune le long des grands fleuves sur les berges ensoleillées, dans les marécages parmi les mangroves et le long des plages, où il couvre souvent les arbres, et dans les habitats rudéraux, très ensoleillés et humides. On le rencontre dans les lisières des forêts sempervirentes de plaine et riveraines, autour de 0–500 m d'altitude.
+Allamanda cathartica fleurit toute l'année, et fructifie dans les Guyanes en août-septembre.
+Les fleurs sont pollinisées par les colibris.
 Le fruit anémo-zoochore ne se développe qu'en milieu très chaud.
 Allamanda cathartica est une plante ornementale cultivée dans tous les pays tropicaux, où elle s'est souvent naturalisée.
 Désormais répandue sous toutes les zones tropicales du globe, Allamanda cathartica est souvent vue le long des routes, et utilisée pour couvrir des murs ou des surfaces au sol.
-Elle est considérée comme plante envahissante et nuisible dans certaines zones (par exemple dans l'état du Queensland en Australie). Elle peut former des colonies denses, impactant la végétation indigène et provoquant le déplacement des espèces autochtones. Elle est par ailleurs toxique pour l'homme et le bétail[8].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Allamanda_cathartica</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Allamanda_cathartica</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Composition</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toute la plante contient un latex blanc caustique, pouvant provoquer des diarrhées en cas d'ingestion.
-Les feuilles[9] contiennent des triterpènes estérifiés, de la pluméricine, de l'isopluméricine, de l'acide ursolique, de la β-amyrine et du β-sitostérol. Les racines contiennent des lactones d'iridoïdes (allamandine, allamandicine et allandine) et des lactones triterpéniques (fluvoplumeirine, pluméricine etc.). La fleur contient des flavonoïdes (quercétine et kaempférol).
+Elle est considérée comme plante envahissante et nuisible dans certaines zones (par exemple dans l'état du Queensland en Australie). Elle peut former des colonies denses, impactant la végétation indigène et provoquant le déplacement des espèces autochtones. Elle est par ailleurs toxique pour l'homme et le bétail.
 </t>
         </is>
       </c>
@@ -692,61 +715,137 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toute la plante contient un latex blanc caustique, pouvant provoquer des diarrhées en cas d'ingestion.
+Les feuilles contiennent des triterpènes estérifiés, de la pluméricine, de l'isopluméricine, de l'acide ursolique, de la β-amyrine et du β-sitostérol. Les racines contiennent des lactones d'iridoïdes (allamandine, allamandicine et allandine) et des lactones triterpéniques (fluvoplumeirine, pluméricine etc.). La fleur contient des flavonoïdes (quercétine et kaempférol).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Allamanda_cathartica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allamanda_cathartica</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante ornementale
-Cultivé à des fins horticoles dans les zones tropicales du monde entier, Allamanda cathartica est facile à cultiver et à multiplier par bouturage dans les serres, où il ne produit apparemment jamais de fruits. Il fut introduit en Angleterre en 1785 (Linné)[3].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plante ornementale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cultivé à des fins horticoles dans les zones tropicales du monde entier, Allamanda cathartica est facile à cultiver et à multiplier par bouturage dans les serres, où il ne produit apparemment jamais de fruits. Il fut introduit en Angleterre en 1785 (Linné).
 Entretien : Beaucoup de lumière, arrosage fréquent (2 à 3 fois par semaine) à l'eau non calcaire. Éventuellement vaporiser le feuillage durant la saison chaude et apporter un engrais tous les 15 jours.
 Dans les zones tempérées, l'hiver, protéger du gel, réduire les fréquences d'arrosage et tailler avant le retour de la saison chaude.
 La plante ne tolère pas l'ombre, le gel, ni les sols sales ou alcalins. Hormis ces restrictions, c'est une plante robuste qui poussera rapidement dans les conditions appropriées. Taillée, elle reprend encore davantage de vigueur.
 Allamanda cathartica est une plante à croissance vigoureuse pouvant atteindre plusieurs mètres. Elle sert à former des haies spectaculaires, colorées de superbes fleurs jaune vif.
 L'odeur qu'elle dégage est fruitée et délicate.
-Plante médicinale
-Le latex présente des propriétés cathartiques (purgatif) à dose élevée (la tisane de feuille est purgative mais ne provoque pas de vomissements à la dose de 10/1000e)[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Allamanda_cathartica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allamanda_cathartica</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plante médicinale</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le latex présente des propriétés cathartiques (purgatif) à dose élevée (la tisane de feuille est purgative mais ne provoque pas de vomissements à la dose de 10/1000e).
 En Colombie, le latex était employé comme émétique et vermifuge. À Cuba, l'infusion des feuilles servait d'émétique et de purgatif.
-Toute la plante est photodynamisante[10] ; elle provoque des irritations cutanées et est caustique pour les yeux. L'ingestion provoque nausées, vomissements et sécheresse de la bouche.
-L'extrait de racines et de feuilles provoque une hypotension chez le chat[9].
-L'extrait aqueux d’Allamanda cathartica facilite la cicatrisation des plaies[11].
-En Guyane, chez les Wayãpi, la décoction d'écorce longuement exposée au soleil est frottée sur le corps comme fébrifuge[4].
-Chez les Palikur, la décoction de fleurs est consommé comme antitussif, mais aussi associée à la décoction de feuilles en lavement de tête pour lutter contre les étourdissements. Le bain de feuilles, tiges et fleurs sert aussi à rendre les enfants vifs et actifs comme l'anaconda (association symbolique)[4].
-Les Caboclos du Rio Madeira s'en servent aussi comme antitussif et anthelmintique[12].
-Les Amérindiens du nord-ouest du Guyana consomment la tisane de feuilles comme antipaludéen[13].
-L'allamandine contenue dans la plante (lactone d'iridoïde) présente des propriétés antileucémiques[9] et antinéoplasiques[14].
+Toute la plante est photodynamisante ; elle provoque des irritations cutanées et est caustique pour les yeux. L'ingestion provoque nausées, vomissements et sécheresse de la bouche.
+L'extrait de racines et de feuilles provoque une hypotension chez le chat.
+L'extrait aqueux d’Allamanda cathartica facilite la cicatrisation des plaies.
+En Guyane, chez les Wayãpi, la décoction d'écorce longuement exposée au soleil est frottée sur le corps comme fébrifuge.
+Chez les Palikur, la décoction de fleurs est consommé comme antitussif, mais aussi associée à la décoction de feuilles en lavement de tête pour lutter contre les étourdissements. Le bain de feuilles, tiges et fleurs sert aussi à rendre les enfants vifs et actifs comme l'anaconda (association symbolique).
+Les Caboclos du Rio Madeira s'en servent aussi comme antitussif et anthelmintique.
+Les Amérindiens du nord-ouest du Guyana consomment la tisane de feuilles comme antipaludéen.
+L'allamandine contenue dans la plante (lactone d'iridoïde) présente des propriétés antileucémiques et antinéoplasiques.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Allamanda_cathartica</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Allamanda_cathartica</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Allamanda_cathartica</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allamanda_cathartica</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet décrivit Orelia grandiflora (synonyme d’Allamanda cathartica ) et en proposa le protologue suivant[15] : 
-« ORELIA (grandiflora). (Tabula 106.)Echinus ſcandens, lacteſcens ; flore maximo, luteo. Barr. Fran, Equinox, pag. 48.[16]Allamanda cathartica. Lin. Mantiſſ. 2.p. 114. &amp; idem 146.
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet décrivit Orelia grandiflora (synonyme d’Allamanda cathartica ) et en proposa le protologue suivant : 
+« ORELIA (grandiflora). (Tabula 106.)Echinus ſcandens, lacteſcens ; flore maximo, luteo. Barr. Fran, Equinox, pag. 48.Allamanda cathartica. Lin. Mantiſſ. 2.p. 114. &amp; idem 146.
 Frutex, caules plurimos, ſarmentoſos, ramoſos, nodoſos, volubiles, ſuprá arbores expanſos, è radice emittens. Folia verticillata, tria aut quatuor ad ſingulos nodos ramorum, &amp; ramuſculorum, ovato-oblonga, acuta, glabra, integerrima, ſubſeſſilia. Flores corymboſi, axillares. Corymbi &amp; pedunculi florum squamula ad baſim muniuntur.
 Caules, racemi, folia, flores &amp; ſemina lacerata ſuccum lacteum fundunt.
 Florebat fructumque ferebat Septembri.
